--- a/medicine/Enfance/Paul_Gallico/Paul_Gallico.xlsx
+++ b/medicine/Enfance/Paul_Gallico/Paul_Gallico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul William Gallico (né le 26 juillet 1897 et mort le 15 juillet 1976), est un écrivain et un journaliste sportif américain. Plusieurs de ses romans ont été adaptés au cinéma.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Gallico naît en 1897 d'un père italien, Paolo Gallico, pianiste de concerto et professeur de musique, et d'une mère autrichienne, Hortense Erlich, émigrés aux États-Unis en 1895. Il commence sa carrière comme chroniqueur et éditeur sportif et deviendra l'un des journalistes sportifs les mieux payés d'Amérique. 
 À la fin des années 1930, il abandonne le journalisme et se consacre à l'écriture de nouvelles pour des magazines, puis à des romans. En 1958, est publié Des fleurs pour Mrs Harris (Flowers for Mrs Harris) : le roman est un grand succès d'édition ; il est le premier d’une série de quatre romans consacrés au personnage de l’adorable femme de chambre "Mrs. 'Arris". Un téléfilm sera réalisé en 1992 avec Angela Lansbury dans le rôle-titre (Tous les rêves sont permis).
